--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Fname</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>00000124</t>
+  </si>
+  <si>
+    <t>00000113</t>
+  </si>
+  <si>
+    <t>00000114</t>
+  </si>
+  <si>
+    <t>00000115</t>
   </si>
 </sst>
 </file>
@@ -530,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Fname</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>00000115</t>
+  </si>
+  <si>
+    <t>00000116</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
